--- a/Phenoloxidase Activity data/HEG.xlsx
+++ b/Phenoloxidase Activity data/HEG.xlsx
@@ -65,9 +65,6 @@
     <t>Exploratory</t>
   </si>
   <si>
-    <t>Soil Type</t>
-  </si>
-  <si>
     <t>Depth (cm)</t>
   </si>
   <si>
@@ -255,6 +252,9 @@
   </si>
   <si>
     <t>F_2018-2022</t>
+  </si>
+  <si>
+    <t>Soil_Type</t>
   </si>
 </sst>
 </file>
@@ -582,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="Q54" sqref="Q54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,25 +627,25 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>11</v>
@@ -654,10 +654,10 @@
         <v>12</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>91183</v>
@@ -713,16 +713,16 @@
         <v>5.17</v>
       </c>
       <c r="R2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" t="s">
         <v>17</v>
       </c>
-      <c r="T2" t="s">
-        <v>18</v>
-      </c>
       <c r="U2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -730,7 +730,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>91184</v>
@@ -778,16 +778,16 @@
         <v>2.89</v>
       </c>
       <c r="R3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -795,7 +795,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>91185</v>
@@ -843,16 +843,16 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="R4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -860,7 +860,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>91186</v>
@@ -908,16 +908,16 @@
         <v>2.19</v>
       </c>
       <c r="R5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -925,7 +925,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>91187</v>
@@ -973,16 +973,16 @@
         <v>2.36</v>
       </c>
       <c r="R6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -990,7 +990,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>91188</v>
@@ -1038,16 +1038,16 @@
         <v>2.72</v>
       </c>
       <c r="R7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -1055,7 +1055,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>91189</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -1120,7 +1120,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>91190</v>
@@ -1168,16 +1168,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -1185,7 +1185,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>91191</v>
@@ -1233,16 +1233,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1250,7 +1250,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>91192</v>
@@ -1298,16 +1298,16 @@
         <v>0.23</v>
       </c>
       <c r="R11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -1315,7 +1315,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>91193</v>
@@ -1363,16 +1363,16 @@
         <v>0.79</v>
       </c>
       <c r="R12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -1380,7 +1380,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>91194</v>
@@ -1428,16 +1428,16 @@
         <v>1.24</v>
       </c>
       <c r="R13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -1445,7 +1445,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>91195</v>
@@ -1493,16 +1493,16 @@
         <v>1.77</v>
       </c>
       <c r="R14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -1510,7 +1510,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>91196</v>
@@ -1558,16 +1558,16 @@
         <v>1.29</v>
       </c>
       <c r="R15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -1575,7 +1575,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>91197</v>
@@ -1623,16 +1623,16 @@
         <v>1.46</v>
       </c>
       <c r="R16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
@@ -1640,7 +1640,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>91198</v>
@@ -1688,16 +1688,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>91199</v>
@@ -1753,16 +1753,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -1770,7 +1770,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>91200</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
@@ -1835,7 +1835,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>91201</v>
@@ -1883,16 +1883,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -1900,7 +1900,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>91202</v>
@@ -1948,16 +1948,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
@@ -1965,7 +1965,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>91203</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
@@ -2030,7 +2030,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>91204</v>
@@ -2078,16 +2078,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S23" t="s">
+        <v>16</v>
+      </c>
+      <c r="T23" t="s">
         <v>17</v>
       </c>
-      <c r="T23" t="s">
-        <v>18</v>
-      </c>
       <c r="U23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
@@ -2095,7 +2095,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24">
         <v>91205</v>
@@ -2143,16 +2143,16 @@
         <v>0.71</v>
       </c>
       <c r="R24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
@@ -2160,7 +2160,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>91206</v>
@@ -2208,16 +2208,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
@@ -2225,7 +2225,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26">
         <v>91207</v>
@@ -2273,16 +2273,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S26" t="s">
+        <v>16</v>
+      </c>
+      <c r="T26" t="s">
         <v>17</v>
       </c>
-      <c r="T26" t="s">
-        <v>18</v>
-      </c>
       <c r="U26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
@@ -2290,7 +2290,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27">
         <v>91208</v>
@@ -2338,16 +2338,16 @@
         <v>1.9</v>
       </c>
       <c r="R27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S27" t="s">
+        <v>16</v>
+      </c>
+      <c r="T27" t="s">
         <v>17</v>
       </c>
-      <c r="T27" t="s">
-        <v>18</v>
-      </c>
       <c r="U27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
@@ -2355,7 +2355,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28">
         <v>91209</v>
@@ -2403,16 +2403,16 @@
         <v>1.61</v>
       </c>
       <c r="R28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S28" t="s">
+        <v>16</v>
+      </c>
+      <c r="T28" t="s">
         <v>17</v>
       </c>
-      <c r="T28" t="s">
-        <v>18</v>
-      </c>
       <c r="U28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
@@ -2420,7 +2420,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29">
         <v>91210</v>
@@ -2468,16 +2468,16 @@
         <v>1.24</v>
       </c>
       <c r="R29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S29" t="s">
+        <v>16</v>
+      </c>
+      <c r="T29" t="s">
         <v>17</v>
       </c>
-      <c r="T29" t="s">
-        <v>18</v>
-      </c>
       <c r="U29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
@@ -2485,7 +2485,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>91211</v>
@@ -2533,16 +2533,16 @@
         <v>1.24</v>
       </c>
       <c r="R30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S30" t="s">
+        <v>16</v>
+      </c>
+      <c r="T30" t="s">
         <v>17</v>
       </c>
-      <c r="T30" t="s">
-        <v>18</v>
-      </c>
       <c r="U30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
@@ -2550,7 +2550,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31">
         <v>91212</v>
@@ -2598,16 +2598,16 @@
         <v>2.25</v>
       </c>
       <c r="R31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S31" t="s">
+        <v>16</v>
+      </c>
+      <c r="T31" t="s">
         <v>17</v>
       </c>
-      <c r="T31" t="s">
-        <v>18</v>
-      </c>
       <c r="U31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
@@ -2615,7 +2615,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32">
         <v>91213</v>
@@ -2663,16 +2663,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S32" t="s">
+        <v>16</v>
+      </c>
+      <c r="T32" t="s">
         <v>17</v>
       </c>
-      <c r="T32" t="s">
-        <v>18</v>
-      </c>
       <c r="U32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
@@ -2680,7 +2680,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33">
         <v>91214</v>
@@ -2728,16 +2728,16 @@
         <v>1.76</v>
       </c>
       <c r="R33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S33" t="s">
+        <v>16</v>
+      </c>
+      <c r="T33" t="s">
         <v>17</v>
       </c>
-      <c r="T33" t="s">
-        <v>18</v>
-      </c>
       <c r="U33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
@@ -2745,7 +2745,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34">
         <v>91215</v>
@@ -2793,16 +2793,16 @@
         <v>2.04</v>
       </c>
       <c r="R34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S34" t="s">
+        <v>16</v>
+      </c>
+      <c r="T34" t="s">
         <v>17</v>
       </c>
-      <c r="T34" t="s">
-        <v>18</v>
-      </c>
       <c r="U34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
@@ -2810,7 +2810,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35">
         <v>91216</v>
@@ -2858,16 +2858,16 @@
         <v>2.72</v>
       </c>
       <c r="R35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S35" t="s">
+        <v>16</v>
+      </c>
+      <c r="T35" t="s">
         <v>17</v>
       </c>
-      <c r="T35" t="s">
-        <v>18</v>
-      </c>
       <c r="U35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -2875,7 +2875,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36">
         <v>91217</v>
@@ -2923,16 +2923,16 @@
         <v>2.41</v>
       </c>
       <c r="R36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S36" t="s">
+        <v>16</v>
+      </c>
+      <c r="T36" t="s">
         <v>17</v>
       </c>
-      <c r="T36" t="s">
-        <v>18</v>
-      </c>
       <c r="U36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
@@ -2940,7 +2940,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37">
         <v>91218</v>
@@ -2988,16 +2988,16 @@
         <v>0.64</v>
       </c>
       <c r="R37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S37" t="s">
+        <v>16</v>
+      </c>
+      <c r="T37" t="s">
         <v>17</v>
       </c>
-      <c r="T37" t="s">
-        <v>18</v>
-      </c>
       <c r="U37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
@@ -3005,7 +3005,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38">
         <v>91219</v>
@@ -3053,16 +3053,16 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="R38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S38" t="s">
+        <v>16</v>
+      </c>
+      <c r="T38" t="s">
         <v>17</v>
       </c>
-      <c r="T38" t="s">
-        <v>18</v>
-      </c>
       <c r="U38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
@@ -3070,7 +3070,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39">
         <v>91220</v>
@@ -3118,16 +3118,16 @@
         <v>0.33</v>
       </c>
       <c r="R39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S39" t="s">
+        <v>16</v>
+      </c>
+      <c r="T39" t="s">
         <v>17</v>
       </c>
-      <c r="T39" t="s">
-        <v>18</v>
-      </c>
       <c r="U39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
@@ -3135,7 +3135,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40">
         <v>91221</v>
@@ -3183,16 +3183,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S40" t="s">
+        <v>16</v>
+      </c>
+      <c r="T40" t="s">
         <v>17</v>
       </c>
-      <c r="T40" t="s">
-        <v>18</v>
-      </c>
       <c r="U40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
@@ -3200,7 +3200,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41">
         <v>91222</v>
@@ -3248,16 +3248,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S41" t="s">
+        <v>16</v>
+      </c>
+      <c r="T41" t="s">
         <v>17</v>
       </c>
-      <c r="T41" t="s">
-        <v>18</v>
-      </c>
       <c r="U41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
@@ -3265,7 +3265,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42">
         <v>91223</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S42" t="s">
+        <v>16</v>
+      </c>
+      <c r="T42" t="s">
         <v>17</v>
       </c>
-      <c r="T42" t="s">
-        <v>18</v>
-      </c>
       <c r="U42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
@@ -3330,7 +3330,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43">
         <v>91224</v>
@@ -3378,16 +3378,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S43" t="s">
+        <v>16</v>
+      </c>
+      <c r="T43" t="s">
         <v>17</v>
       </c>
-      <c r="T43" t="s">
-        <v>18</v>
-      </c>
       <c r="U43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
@@ -3395,7 +3395,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44">
         <v>91225</v>
@@ -3443,16 +3443,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S44" t="s">
+        <v>16</v>
+      </c>
+      <c r="T44" t="s">
         <v>17</v>
       </c>
-      <c r="T44" t="s">
-        <v>18</v>
-      </c>
       <c r="U44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
@@ -3460,7 +3460,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45">
         <v>91226</v>
@@ -3508,16 +3508,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S45" t="s">
+        <v>16</v>
+      </c>
+      <c r="T45" t="s">
         <v>17</v>
       </c>
-      <c r="T45" t="s">
-        <v>18</v>
-      </c>
       <c r="U45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
@@ -3525,7 +3525,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46">
         <v>91227</v>
@@ -3573,16 +3573,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S46" t="s">
+        <v>16</v>
+      </c>
+      <c r="T46" t="s">
         <v>17</v>
       </c>
-      <c r="T46" t="s">
-        <v>18</v>
-      </c>
       <c r="U46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
@@ -3590,7 +3590,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C47">
         <v>91228</v>
@@ -3638,16 +3638,16 @@
         <v>0</v>
       </c>
       <c r="R47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S47" t="s">
+        <v>16</v>
+      </c>
+      <c r="T47" t="s">
         <v>17</v>
       </c>
-      <c r="T47" t="s">
-        <v>18</v>
-      </c>
       <c r="U47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
@@ -3655,7 +3655,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C48">
         <v>91229</v>
@@ -3703,16 +3703,16 @@
         <v>1.9</v>
       </c>
       <c r="R48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S48" t="s">
+        <v>16</v>
+      </c>
+      <c r="T48" t="s">
         <v>17</v>
       </c>
-      <c r="T48" t="s">
-        <v>18</v>
-      </c>
       <c r="U48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
@@ -3720,7 +3720,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C49">
         <v>91230</v>
@@ -3768,16 +3768,16 @@
         <v>1.39</v>
       </c>
       <c r="R49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S49" t="s">
+        <v>16</v>
+      </c>
+      <c r="T49" t="s">
         <v>17</v>
       </c>
-      <c r="T49" t="s">
-        <v>18</v>
-      </c>
       <c r="U49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
@@ -3785,7 +3785,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C50">
         <v>91231</v>
@@ -3833,16 +3833,16 @@
         <v>1.48</v>
       </c>
       <c r="R50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S50" t="s">
+        <v>16</v>
+      </c>
+      <c r="T50" t="s">
         <v>17</v>
       </c>
-      <c r="T50" t="s">
-        <v>18</v>
-      </c>
       <c r="U50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
@@ -3850,7 +3850,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C51">
         <v>91232</v>
@@ -3898,16 +3898,16 @@
         <v>0.59</v>
       </c>
       <c r="R51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S51" t="s">
+        <v>16</v>
+      </c>
+      <c r="T51" t="s">
         <v>17</v>
       </c>
-      <c r="T51" t="s">
-        <v>18</v>
-      </c>
       <c r="U51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
